--- a/dataset/d-inggris.xlsx
+++ b/dataset/d-inggris.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inang\Downloads\SKRIPSI\backprosiswa\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD00CC62-970B-4B8D-AF4D-DF44201DC150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEF112B-2803-4158-ADC3-370318D112B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{70AC6284-4446-41DB-9120-EDD5798763A9}"/>
   </bookViews>
@@ -36,15 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="146">
   <si>
-    <t>nama</t>
-  </si>
-  <si>
-    <t>jurusan</t>
-  </si>
-  <si>
-    <t>nisn</t>
-  </si>
-  <si>
     <t>Fatikhatul Khusna</t>
   </si>
   <si>
@@ -357,24 +348,6 @@
     <t>zulfan khoirudin</t>
   </si>
   <si>
-    <t>TKI</t>
-  </si>
-  <si>
-    <t>s1</t>
-  </si>
-  <si>
-    <t>s2</t>
-  </si>
-  <si>
-    <t>s3</t>
-  </si>
-  <si>
-    <t>s4</t>
-  </si>
-  <si>
-    <t>s5</t>
-  </si>
-  <si>
     <t>ADZKIYAH DWI JIHAN NABILA</t>
   </si>
   <si>
@@ -472,6 +445,33 @@
   </si>
   <si>
     <t>WULAN MAULA ANJANI</t>
+  </si>
+  <si>
+    <t>NISN</t>
+  </si>
+  <si>
+    <t>NAMA</t>
+  </si>
+  <si>
+    <t>JURUSAN</t>
+  </si>
+  <si>
+    <t>SEMESTER 1</t>
+  </si>
+  <si>
+    <t>SEMESTER 2</t>
+  </si>
+  <si>
+    <t>SEMESTER 3</t>
+  </si>
+  <si>
+    <t>SEMESTER 4</t>
+  </si>
+  <si>
+    <t>SEMESTER 5</t>
+  </si>
+  <si>
+    <t>TKJ</t>
   </si>
 </sst>
 </file>
@@ -826,40 +826,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6241D0-5852-4839-8B67-6E50C3332E3E}">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="6" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="G1" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="H1" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -867,10 +871,10 @@
         <v>3049699097</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D2">
         <v>82</v>
@@ -890,13 +894,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D3">
         <v>79</v>
@@ -916,13 +920,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D4">
         <v>79</v>
@@ -945,10 +949,10 @@
         <v>3040508393</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D5">
         <v>79</v>
@@ -971,10 +975,10 @@
         <v>3067947891</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D6">
         <v>79</v>
@@ -994,13 +998,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D7">
         <v>79</v>
@@ -1023,10 +1027,10 @@
         <v>3067983731</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D8">
         <v>79</v>
@@ -1046,13 +1050,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D9">
         <v>79</v>
@@ -1075,10 +1079,10 @@
         <v>3058871110</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D10">
         <v>79</v>
@@ -1098,13 +1102,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D11">
         <v>79</v>
@@ -1127,10 +1131,10 @@
         <v>3043851929</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D12">
         <v>79</v>
@@ -1153,10 +1157,10 @@
         <v>3059693778</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D13">
         <v>79</v>
@@ -1176,13 +1180,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D14">
         <v>79</v>
@@ -1202,13 +1206,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D15">
         <v>79</v>
@@ -1231,10 +1235,10 @@
         <v>3071564108</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D16">
         <v>79</v>
@@ -1257,10 +1261,10 @@
         <v>3066545605</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D17">
         <v>79</v>
@@ -1280,13 +1284,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D18">
         <v>79</v>
@@ -1309,10 +1313,10 @@
         <v>3062841778</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D19">
         <v>79</v>
@@ -1332,13 +1336,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D20">
         <v>79</v>
@@ -1358,13 +1362,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D21">
         <v>79</v>
@@ -1387,10 +1391,10 @@
         <v>3056624953</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D22">
         <v>79</v>
@@ -1413,10 +1417,10 @@
         <v>3059054711</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D23">
         <v>79</v>
@@ -1436,13 +1440,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D24">
         <v>82</v>
@@ -1462,13 +1466,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D25">
         <v>79</v>
@@ -1488,13 +1492,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D26">
         <v>79</v>
@@ -1514,13 +1518,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D27">
         <v>79</v>
@@ -1540,13 +1544,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D28">
         <v>79</v>
@@ -1569,10 +1573,10 @@
         <v>3060750915</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D29">
         <v>79</v>
@@ -1595,10 +1599,10 @@
         <v>3051510343</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D30">
         <v>79</v>
@@ -1621,10 +1625,10 @@
         <v>3031910391</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D31">
         <v>79</v>
@@ -1644,13 +1648,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D32">
         <v>79</v>
@@ -1670,13 +1674,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D33">
         <v>79</v>
@@ -1699,10 +1703,10 @@
         <v>3066886302</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D34">
         <v>79</v>
@@ -1722,13 +1726,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D35">
         <v>79</v>
@@ -1748,13 +1752,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D36">
         <v>79</v>
@@ -1777,10 +1781,10 @@
         <v>3046523319</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D37">
         <v>79</v>
@@ -1800,13 +1804,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D38">
         <v>79</v>
@@ -1829,10 +1833,10 @@
         <v>3054851654</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D39">
         <v>79</v>
@@ -1852,13 +1856,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D40">
         <v>79</v>
@@ -1878,13 +1882,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D41">
         <v>79</v>
@@ -1907,10 +1911,10 @@
         <v>3067698070</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D42">
         <v>79</v>
@@ -1933,10 +1937,10 @@
         <v>3065036679</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D43">
         <v>79</v>
@@ -1959,10 +1963,10 @@
         <v>3060648546</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D44">
         <v>79</v>
@@ -1982,13 +1986,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D45">
         <v>79</v>
@@ -2008,13 +2012,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D46">
         <v>79</v>
@@ -2034,13 +2038,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D47">
         <v>79</v>
@@ -2063,10 +2067,10 @@
         <v>3058260281</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D48">
         <v>79</v>
@@ -2086,13 +2090,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D49">
         <v>79</v>
@@ -2115,10 +2119,10 @@
         <v>3052887504</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D50">
         <v>79</v>
@@ -2138,13 +2142,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D51">
         <v>79</v>
@@ -2167,10 +2171,10 @@
         <v>3066514516</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D52">
         <v>79</v>
@@ -2193,10 +2197,10 @@
         <v>3061114354</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D53">
         <v>79</v>
@@ -2219,10 +2223,10 @@
         <v>3060620417</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D54">
         <v>79</v>
@@ -2242,13 +2246,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D55">
         <v>79</v>
@@ -2268,13 +2272,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D56">
         <v>79</v>
@@ -2294,13 +2298,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D57">
         <v>82</v>
@@ -2323,10 +2327,10 @@
         <v>3066181211</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D58">
         <v>79</v>
@@ -2346,13 +2350,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D59">
         <v>79</v>
@@ -2372,13 +2376,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D60">
         <v>79</v>
@@ -2401,10 +2405,10 @@
         <v>3053290034</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D61">
         <v>79</v>
@@ -2427,10 +2431,10 @@
         <v>3054070979</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C62" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D62">
         <v>79</v>
@@ -2453,10 +2457,10 @@
         <v>3052071532</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D63">
         <v>79</v>
@@ -2479,10 +2483,10 @@
         <v>3045616258</v>
       </c>
       <c r="B64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C64" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D64">
         <v>79</v>
@@ -2505,10 +2509,10 @@
         <v>3048068208</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C65" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D65">
         <v>79</v>
@@ -2531,10 +2535,10 @@
         <v>3049452045</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C66" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D66">
         <v>79</v>
@@ -2554,13 +2558,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C67" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D67">
         <v>79</v>
@@ -2580,13 +2584,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B68" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C68" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D68">
         <v>79</v>
@@ -2606,13 +2610,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C69" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D69">
         <v>79</v>
@@ -2635,10 +2639,10 @@
         <v>3042624141</v>
       </c>
       <c r="B70" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C70" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D70">
         <v>79</v>
@@ -2661,10 +2665,10 @@
         <v>3078292088</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C71" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D71">
         <v>80</v>
@@ -2687,10 +2691,10 @@
         <v>3057174984</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C72" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D72">
         <v>80</v>
@@ -2710,13 +2714,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B73" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C73" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D73">
         <v>80</v>
@@ -2736,13 +2740,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B74" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C74" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D74">
         <v>80</v>
@@ -2762,13 +2766,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C75" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D75">
         <v>80</v>
@@ -2788,13 +2792,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B76" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C76" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D76">
         <v>80</v>
@@ -2814,13 +2818,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C77" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D77">
         <v>80</v>
@@ -2843,10 +2847,10 @@
         <v>3063091194</v>
       </c>
       <c r="B78" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C78" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D78">
         <v>80</v>
@@ -2866,13 +2870,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C79" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D79">
         <v>80</v>
@@ -2892,13 +2896,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B80" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C80" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D80">
         <v>80</v>
@@ -2918,13 +2922,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B81" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C81" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2944,13 +2948,13 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B82" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C82" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D82">
         <v>80</v>
@@ -2970,13 +2974,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B83" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C83" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D83">
         <v>80</v>
@@ -2999,10 +3003,10 @@
         <v>3073582283</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C84" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D84">
         <v>80</v>
@@ -3022,13 +3026,13 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B85" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C85" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D85">
         <v>80</v>
@@ -3051,10 +3055,10 @@
         <v>3065869370</v>
       </c>
       <c r="B86" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C86" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D86">
         <v>80</v>
@@ -3074,13 +3078,13 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B87" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C87" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D87">
         <v>80</v>
@@ -3103,10 +3107,10 @@
         <v>3067311756</v>
       </c>
       <c r="B88" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C88" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D88">
         <v>80</v>
@@ -3126,13 +3130,13 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B89" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C89" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D89">
         <v>80</v>

--- a/dataset/d-inggris.xlsx
+++ b/dataset/d-inggris.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inang\Downloads\SKRIPSI\backprosiswa\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\2025\06-Juni\02-Zulfa\backprosiswa\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEF112B-2803-4158-ADC3-370318D112B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD74C140-C71B-414A-8AC1-C9FE4799A9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{70AC6284-4446-41DB-9120-EDD5798763A9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="260">
   <si>
     <t>Fatikhatul Khusna</t>
   </si>
@@ -472,6 +472,348 @@
   </si>
   <si>
     <t>TKJ</t>
+  </si>
+  <si>
+    <t>0073887237</t>
+  </si>
+  <si>
+    <t>Anisatul Maghfiroh</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>0065421570</t>
+  </si>
+  <si>
+    <t>Dina Febriana</t>
+  </si>
+  <si>
+    <t>0064238451</t>
+  </si>
+  <si>
+    <t>Intan Listianawati</t>
+  </si>
+  <si>
+    <t>0074041785</t>
+  </si>
+  <si>
+    <t>Kamelia Nur Fazriah</t>
+  </si>
+  <si>
+    <t>0056132222</t>
+  </si>
+  <si>
+    <t>Kurnia</t>
+  </si>
+  <si>
+    <t>0078830476</t>
+  </si>
+  <si>
+    <t>Laela Widia Silfani</t>
+  </si>
+  <si>
+    <t>0063791072</t>
+  </si>
+  <si>
+    <t>Lulu Amelia Rahmah</t>
+  </si>
+  <si>
+    <t>0056206811</t>
+  </si>
+  <si>
+    <t>Lutf Fasiha</t>
+  </si>
+  <si>
+    <t>0059963845</t>
+  </si>
+  <si>
+    <t>Muti Atun Khasanah</t>
+  </si>
+  <si>
+    <t>0055402313</t>
+  </si>
+  <si>
+    <t>Nindya Lintang Anggraini</t>
+  </si>
+  <si>
+    <t>0051266166</t>
+  </si>
+  <si>
+    <t>Noval Ubaidillahil Ali</t>
+  </si>
+  <si>
+    <t>0057498426</t>
+  </si>
+  <si>
+    <t>Novi Zakiyatul Umamah</t>
+  </si>
+  <si>
+    <t>0052985307</t>
+  </si>
+  <si>
+    <t>Nur Waidah</t>
+  </si>
+  <si>
+    <t>0068127230</t>
+  </si>
+  <si>
+    <t>Nurfa Aidah</t>
+  </si>
+  <si>
+    <t>0059757268</t>
+  </si>
+  <si>
+    <t>Putri Tangguh Pratiwi</t>
+  </si>
+  <si>
+    <t>0066285858</t>
+  </si>
+  <si>
+    <t>Risya Afriliana</t>
+  </si>
+  <si>
+    <t>0063472530</t>
+  </si>
+  <si>
+    <t>Tri Sinta Raharjani Mustofa</t>
+  </si>
+  <si>
+    <t>0064968908</t>
+  </si>
+  <si>
+    <t>Wulan Riskiana</t>
+  </si>
+  <si>
+    <t>0061609459</t>
+  </si>
+  <si>
+    <t>Alya Azzahra</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>0056345492</t>
+  </si>
+  <si>
+    <t>Ati Dina Nasikhah</t>
+  </si>
+  <si>
+    <t>0058274260</t>
+  </si>
+  <si>
+    <t>Atiqotun Najiyah</t>
+  </si>
+  <si>
+    <t>0071803322</t>
+  </si>
+  <si>
+    <t>Eva Nurfadhilah</t>
+  </si>
+  <si>
+    <t>0063400296</t>
+  </si>
+  <si>
+    <t>Fika Khurotul Salamah</t>
+  </si>
+  <si>
+    <t>0058452847</t>
+  </si>
+  <si>
+    <t>Inayatul Fitroh</t>
+  </si>
+  <si>
+    <t>0066040881</t>
+  </si>
+  <si>
+    <t>Nahdiya Fitri Maelani</t>
+  </si>
+  <si>
+    <t>0057638183</t>
+  </si>
+  <si>
+    <t>Rahma Septiani</t>
+  </si>
+  <si>
+    <t>0068007538</t>
+  </si>
+  <si>
+    <t>Retno Kurniasih</t>
+  </si>
+  <si>
+    <t>3068782225</t>
+  </si>
+  <si>
+    <t>Siti Kholifah</t>
+  </si>
+  <si>
+    <t>0054204351</t>
+  </si>
+  <si>
+    <t>Thesa Aulia Renata</t>
+  </si>
+  <si>
+    <t>Asyifa Iza Asyfia</t>
+  </si>
+  <si>
+    <t>Davina Dini Aulia</t>
+  </si>
+  <si>
+    <t>Irsyad Adjiastiar Alfauzan</t>
+  </si>
+  <si>
+    <t>0044467807</t>
+  </si>
+  <si>
+    <t>Mely Yulistia Setyarini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nur Afifah </t>
+  </si>
+  <si>
+    <t>Rafi Jauhari Robbani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safir Dzikria Nur Islami </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siti Khumaeroh </t>
+  </si>
+  <si>
+    <t>0052079061</t>
+  </si>
+  <si>
+    <t>Amelia Indriyanti</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>0054695342</t>
+  </si>
+  <si>
+    <t>Atiya Nizrina Fitriatuz Zahra</t>
+  </si>
+  <si>
+    <t>0066934587</t>
+  </si>
+  <si>
+    <t>Aulia Toyibah</t>
+  </si>
+  <si>
+    <t>0052663526</t>
+  </si>
+  <si>
+    <t>Deva Arla Aelani</t>
+  </si>
+  <si>
+    <t>0051048637</t>
+  </si>
+  <si>
+    <t>Dina Fuji Lestari</t>
+  </si>
+  <si>
+    <t>0067420535</t>
+  </si>
+  <si>
+    <t>Eka Septy Dhea Ardhina</t>
+  </si>
+  <si>
+    <t>0051919273</t>
+  </si>
+  <si>
+    <t>Ellen Listi Lafenia</t>
+  </si>
+  <si>
+    <t>0062691503</t>
+  </si>
+  <si>
+    <t>Elvira Putri Salsabila</t>
+  </si>
+  <si>
+    <t>0055802659</t>
+  </si>
+  <si>
+    <t>Farah Anbiya Rahma</t>
+  </si>
+  <si>
+    <t>0049777607</t>
+  </si>
+  <si>
+    <t>Fitriya Nurul Amanah</t>
+  </si>
+  <si>
+    <t>0066417481</t>
+  </si>
+  <si>
+    <t>Imelda Putri Nabila</t>
+  </si>
+  <si>
+    <t>0059628602</t>
+  </si>
+  <si>
+    <t>Khusnul Khotimah</t>
+  </si>
+  <si>
+    <t>0069716561</t>
+  </si>
+  <si>
+    <t>Miska Nuril Laeli</t>
+  </si>
+  <si>
+    <t>0069476442</t>
+  </si>
+  <si>
+    <t>Nabila Salwa Salsabila</t>
+  </si>
+  <si>
+    <t>0076996863</t>
+  </si>
+  <si>
+    <t>Nila Aminatul Faradis</t>
+  </si>
+  <si>
+    <t>0077198364</t>
+  </si>
+  <si>
+    <t>Pradika Eka Ramdani Rizki</t>
+  </si>
+  <si>
+    <t>0063521082</t>
+  </si>
+  <si>
+    <t>Sagisna Eka Nurafisa</t>
+  </si>
+  <si>
+    <t>0065706366</t>
+  </si>
+  <si>
+    <t>Salsa Maulidatun Nadhifa</t>
+  </si>
+  <si>
+    <t>0063766569</t>
+  </si>
+  <si>
+    <t>Salvy Mei Lida</t>
+  </si>
+  <si>
+    <t>0053741594</t>
+  </si>
+  <si>
+    <t>Suci Nia Ramadhani</t>
+  </si>
+  <si>
+    <t>0060150709</t>
+  </si>
+  <si>
+    <t>Syifa Rahma Dina</t>
+  </si>
+  <si>
+    <t>0057912950</t>
+  </si>
+  <si>
+    <t>Windi Ayuningsih</t>
   </si>
 </sst>
 </file>
@@ -824,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6241D0-5852-4839-8B67-6E50C3332E3E}">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K71" sqref="K71"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3154,6 +3496,1519 @@
         <v>75</v>
       </c>
     </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B90" t="s">
+        <v>147</v>
+      </c>
+      <c r="C90" t="s">
+        <v>148</v>
+      </c>
+      <c r="D90">
+        <v>80</v>
+      </c>
+      <c r="E90">
+        <v>82</v>
+      </c>
+      <c r="F90">
+        <v>88</v>
+      </c>
+      <c r="G90">
+        <v>84</v>
+      </c>
+      <c r="H90">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B91" t="s">
+        <v>150</v>
+      </c>
+      <c r="C91" t="s">
+        <v>148</v>
+      </c>
+      <c r="D91">
+        <v>80</v>
+      </c>
+      <c r="E91">
+        <v>82</v>
+      </c>
+      <c r="F91">
+        <v>88</v>
+      </c>
+      <c r="G91">
+        <v>84</v>
+      </c>
+      <c r="H91">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B92" t="s">
+        <v>152</v>
+      </c>
+      <c r="C92" t="s">
+        <v>148</v>
+      </c>
+      <c r="D92">
+        <v>80</v>
+      </c>
+      <c r="E92">
+        <v>82</v>
+      </c>
+      <c r="F92">
+        <v>88</v>
+      </c>
+      <c r="G92">
+        <v>84</v>
+      </c>
+      <c r="H92">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B93" t="s">
+        <v>154</v>
+      </c>
+      <c r="C93" t="s">
+        <v>148</v>
+      </c>
+      <c r="D93">
+        <v>80</v>
+      </c>
+      <c r="E93">
+        <v>82</v>
+      </c>
+      <c r="F93">
+        <v>88</v>
+      </c>
+      <c r="G93">
+        <v>84</v>
+      </c>
+      <c r="H93">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B94" t="s">
+        <v>156</v>
+      </c>
+      <c r="C94" t="s">
+        <v>148</v>
+      </c>
+      <c r="D94">
+        <v>80</v>
+      </c>
+      <c r="E94">
+        <v>82</v>
+      </c>
+      <c r="F94">
+        <v>88</v>
+      </c>
+      <c r="G94">
+        <v>84</v>
+      </c>
+      <c r="H94">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B95" t="s">
+        <v>158</v>
+      </c>
+      <c r="C95" t="s">
+        <v>148</v>
+      </c>
+      <c r="D95">
+        <v>80</v>
+      </c>
+      <c r="E95">
+        <v>82</v>
+      </c>
+      <c r="F95">
+        <v>88</v>
+      </c>
+      <c r="G95">
+        <v>84</v>
+      </c>
+      <c r="H95">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B96" t="s">
+        <v>160</v>
+      </c>
+      <c r="C96" t="s">
+        <v>148</v>
+      </c>
+      <c r="D96">
+        <v>80</v>
+      </c>
+      <c r="E96">
+        <v>82</v>
+      </c>
+      <c r="F96">
+        <v>88</v>
+      </c>
+      <c r="G96">
+        <v>84</v>
+      </c>
+      <c r="H96">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B97" t="s">
+        <v>162</v>
+      </c>
+      <c r="C97" t="s">
+        <v>148</v>
+      </c>
+      <c r="D97">
+        <v>80</v>
+      </c>
+      <c r="E97">
+        <v>82</v>
+      </c>
+      <c r="F97">
+        <v>88</v>
+      </c>
+      <c r="G97">
+        <v>84</v>
+      </c>
+      <c r="H97">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B98" t="s">
+        <v>164</v>
+      </c>
+      <c r="C98" t="s">
+        <v>148</v>
+      </c>
+      <c r="D98">
+        <v>80</v>
+      </c>
+      <c r="E98">
+        <v>82</v>
+      </c>
+      <c r="F98">
+        <v>88</v>
+      </c>
+      <c r="G98">
+        <v>84</v>
+      </c>
+      <c r="H98">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B99" t="s">
+        <v>166</v>
+      </c>
+      <c r="C99" t="s">
+        <v>148</v>
+      </c>
+      <c r="D99">
+        <v>80</v>
+      </c>
+      <c r="E99">
+        <v>82</v>
+      </c>
+      <c r="F99">
+        <v>88</v>
+      </c>
+      <c r="G99">
+        <v>84</v>
+      </c>
+      <c r="H99">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B100" t="s">
+        <v>168</v>
+      </c>
+      <c r="C100" t="s">
+        <v>148</v>
+      </c>
+      <c r="D100">
+        <v>80</v>
+      </c>
+      <c r="E100">
+        <v>82</v>
+      </c>
+      <c r="F100">
+        <v>88</v>
+      </c>
+      <c r="G100">
+        <v>84</v>
+      </c>
+      <c r="H100">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B101" t="s">
+        <v>170</v>
+      </c>
+      <c r="C101" t="s">
+        <v>148</v>
+      </c>
+      <c r="D101">
+        <v>80</v>
+      </c>
+      <c r="E101">
+        <v>82</v>
+      </c>
+      <c r="F101">
+        <v>88</v>
+      </c>
+      <c r="G101">
+        <v>84</v>
+      </c>
+      <c r="H101">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B102" t="s">
+        <v>172</v>
+      </c>
+      <c r="C102" t="s">
+        <v>148</v>
+      </c>
+      <c r="D102">
+        <v>80</v>
+      </c>
+      <c r="E102">
+        <v>82</v>
+      </c>
+      <c r="F102">
+        <v>88</v>
+      </c>
+      <c r="G102">
+        <v>84</v>
+      </c>
+      <c r="H102">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B103" t="s">
+        <v>174</v>
+      </c>
+      <c r="C103" t="s">
+        <v>148</v>
+      </c>
+      <c r="D103">
+        <v>80</v>
+      </c>
+      <c r="E103">
+        <v>82</v>
+      </c>
+      <c r="F103">
+        <v>88</v>
+      </c>
+      <c r="G103">
+        <v>84</v>
+      </c>
+      <c r="H103">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B104" t="s">
+        <v>176</v>
+      </c>
+      <c r="C104" t="s">
+        <v>148</v>
+      </c>
+      <c r="D104">
+        <v>80</v>
+      </c>
+      <c r="E104">
+        <v>82</v>
+      </c>
+      <c r="F104">
+        <v>88</v>
+      </c>
+      <c r="G104">
+        <v>84</v>
+      </c>
+      <c r="H104">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B105" t="s">
+        <v>178</v>
+      </c>
+      <c r="C105" t="s">
+        <v>148</v>
+      </c>
+      <c r="D105">
+        <v>80</v>
+      </c>
+      <c r="E105">
+        <v>82</v>
+      </c>
+      <c r="F105">
+        <v>88</v>
+      </c>
+      <c r="G105">
+        <v>84</v>
+      </c>
+      <c r="H105">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B106" t="s">
+        <v>180</v>
+      </c>
+      <c r="C106" t="s">
+        <v>148</v>
+      </c>
+      <c r="D106">
+        <v>80</v>
+      </c>
+      <c r="E106">
+        <v>82</v>
+      </c>
+      <c r="F106">
+        <v>88</v>
+      </c>
+      <c r="G106">
+        <v>84</v>
+      </c>
+      <c r="H106">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B107" t="s">
+        <v>182</v>
+      </c>
+      <c r="C107" t="s">
+        <v>148</v>
+      </c>
+      <c r="D107">
+        <v>80</v>
+      </c>
+      <c r="E107">
+        <v>82</v>
+      </c>
+      <c r="F107">
+        <v>88</v>
+      </c>
+      <c r="G107">
+        <v>84</v>
+      </c>
+      <c r="H107">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B108" t="s">
+        <v>184</v>
+      </c>
+      <c r="C108" t="s">
+        <v>185</v>
+      </c>
+      <c r="D108">
+        <v>80</v>
+      </c>
+      <c r="E108">
+        <v>82</v>
+      </c>
+      <c r="F108">
+        <v>88</v>
+      </c>
+      <c r="G108">
+        <v>84</v>
+      </c>
+      <c r="H108">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B109" t="s">
+        <v>187</v>
+      </c>
+      <c r="C109" t="s">
+        <v>185</v>
+      </c>
+      <c r="D109">
+        <v>80</v>
+      </c>
+      <c r="E109">
+        <v>82</v>
+      </c>
+      <c r="F109">
+        <v>88</v>
+      </c>
+      <c r="G109">
+        <v>84</v>
+      </c>
+      <c r="H109">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B110" t="s">
+        <v>189</v>
+      </c>
+      <c r="C110" t="s">
+        <v>185</v>
+      </c>
+      <c r="D110">
+        <v>80</v>
+      </c>
+      <c r="E110">
+        <v>82</v>
+      </c>
+      <c r="F110">
+        <v>88</v>
+      </c>
+      <c r="G110">
+        <v>84</v>
+      </c>
+      <c r="H110">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B111" t="s">
+        <v>191</v>
+      </c>
+      <c r="C111" t="s">
+        <v>185</v>
+      </c>
+      <c r="D111">
+        <v>80</v>
+      </c>
+      <c r="E111">
+        <v>82</v>
+      </c>
+      <c r="F111">
+        <v>88</v>
+      </c>
+      <c r="G111">
+        <v>84</v>
+      </c>
+      <c r="H111">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B112" t="s">
+        <v>193</v>
+      </c>
+      <c r="C112" t="s">
+        <v>185</v>
+      </c>
+      <c r="D112">
+        <v>80</v>
+      </c>
+      <c r="E112">
+        <v>82</v>
+      </c>
+      <c r="F112">
+        <v>88</v>
+      </c>
+      <c r="G112">
+        <v>84</v>
+      </c>
+      <c r="H112">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B113" t="s">
+        <v>195</v>
+      </c>
+      <c r="C113" t="s">
+        <v>185</v>
+      </c>
+      <c r="D113">
+        <v>80</v>
+      </c>
+      <c r="E113">
+        <v>82</v>
+      </c>
+      <c r="F113">
+        <v>88</v>
+      </c>
+      <c r="G113">
+        <v>84</v>
+      </c>
+      <c r="H113">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B114" t="s">
+        <v>197</v>
+      </c>
+      <c r="C114" t="s">
+        <v>185</v>
+      </c>
+      <c r="D114">
+        <v>80</v>
+      </c>
+      <c r="E114">
+        <v>82</v>
+      </c>
+      <c r="F114">
+        <v>88</v>
+      </c>
+      <c r="G114">
+        <v>84</v>
+      </c>
+      <c r="H114">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B115" t="s">
+        <v>199</v>
+      </c>
+      <c r="C115" t="s">
+        <v>185</v>
+      </c>
+      <c r="D115">
+        <v>80</v>
+      </c>
+      <c r="E115">
+        <v>82</v>
+      </c>
+      <c r="F115">
+        <v>88</v>
+      </c>
+      <c r="G115">
+        <v>84</v>
+      </c>
+      <c r="H115">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B116" t="s">
+        <v>201</v>
+      </c>
+      <c r="C116" t="s">
+        <v>185</v>
+      </c>
+      <c r="D116">
+        <v>80</v>
+      </c>
+      <c r="E116">
+        <v>82</v>
+      </c>
+      <c r="F116">
+        <v>88</v>
+      </c>
+      <c r="G116">
+        <v>84</v>
+      </c>
+      <c r="H116">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B117" t="s">
+        <v>203</v>
+      </c>
+      <c r="C117" t="s">
+        <v>185</v>
+      </c>
+      <c r="D117">
+        <v>80</v>
+      </c>
+      <c r="E117">
+        <v>82</v>
+      </c>
+      <c r="F117">
+        <v>88</v>
+      </c>
+      <c r="G117">
+        <v>84</v>
+      </c>
+      <c r="H117">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B118" t="s">
+        <v>205</v>
+      </c>
+      <c r="C118" t="s">
+        <v>185</v>
+      </c>
+      <c r="D118">
+        <v>80</v>
+      </c>
+      <c r="E118">
+        <v>82</v>
+      </c>
+      <c r="F118">
+        <v>88</v>
+      </c>
+      <c r="G118">
+        <v>84</v>
+      </c>
+      <c r="H118">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>206</v>
+      </c>
+      <c r="C119" t="s">
+        <v>185</v>
+      </c>
+      <c r="D119">
+        <v>80</v>
+      </c>
+      <c r="E119">
+        <v>82</v>
+      </c>
+      <c r="F119">
+        <v>88</v>
+      </c>
+      <c r="G119">
+        <v>84</v>
+      </c>
+      <c r="H119">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>207</v>
+      </c>
+      <c r="C120" t="s">
+        <v>185</v>
+      </c>
+      <c r="D120">
+        <v>80</v>
+      </c>
+      <c r="E120">
+        <v>82</v>
+      </c>
+      <c r="F120">
+        <v>88</v>
+      </c>
+      <c r="G120">
+        <v>84</v>
+      </c>
+      <c r="H120">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>208</v>
+      </c>
+      <c r="C121" t="s">
+        <v>185</v>
+      </c>
+      <c r="D121">
+        <v>80</v>
+      </c>
+      <c r="E121">
+        <v>82</v>
+      </c>
+      <c r="F121">
+        <v>88</v>
+      </c>
+      <c r="G121">
+        <v>84</v>
+      </c>
+      <c r="H121">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B122" t="s">
+        <v>210</v>
+      </c>
+      <c r="C122" t="s">
+        <v>185</v>
+      </c>
+      <c r="D122">
+        <v>80</v>
+      </c>
+      <c r="E122">
+        <v>82</v>
+      </c>
+      <c r="F122">
+        <v>88</v>
+      </c>
+      <c r="G122">
+        <v>84</v>
+      </c>
+      <c r="H122">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>211</v>
+      </c>
+      <c r="C123" t="s">
+        <v>185</v>
+      </c>
+      <c r="D123">
+        <v>80</v>
+      </c>
+      <c r="E123">
+        <v>82</v>
+      </c>
+      <c r="F123">
+        <v>88</v>
+      </c>
+      <c r="G123">
+        <v>84</v>
+      </c>
+      <c r="H123">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>212</v>
+      </c>
+      <c r="C124" t="s">
+        <v>185</v>
+      </c>
+      <c r="D124">
+        <v>80</v>
+      </c>
+      <c r="E124">
+        <v>82</v>
+      </c>
+      <c r="F124">
+        <v>88</v>
+      </c>
+      <c r="G124">
+        <v>84</v>
+      </c>
+      <c r="H124">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>213</v>
+      </c>
+      <c r="C125" t="s">
+        <v>185</v>
+      </c>
+      <c r="D125">
+        <v>80</v>
+      </c>
+      <c r="E125">
+        <v>82</v>
+      </c>
+      <c r="F125">
+        <v>88</v>
+      </c>
+      <c r="G125">
+        <v>84</v>
+      </c>
+      <c r="H125">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>214</v>
+      </c>
+      <c r="C126" t="s">
+        <v>185</v>
+      </c>
+      <c r="D126">
+        <v>80</v>
+      </c>
+      <c r="E126">
+        <v>82</v>
+      </c>
+      <c r="F126">
+        <v>88</v>
+      </c>
+      <c r="G126">
+        <v>84</v>
+      </c>
+      <c r="H126">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B127" t="s">
+        <v>216</v>
+      </c>
+      <c r="C127" t="s">
+        <v>217</v>
+      </c>
+      <c r="D127">
+        <v>80</v>
+      </c>
+      <c r="E127">
+        <v>82</v>
+      </c>
+      <c r="F127">
+        <v>88</v>
+      </c>
+      <c r="G127">
+        <v>84</v>
+      </c>
+      <c r="H127">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B128" t="s">
+        <v>219</v>
+      </c>
+      <c r="C128" t="s">
+        <v>217</v>
+      </c>
+      <c r="D128">
+        <v>80</v>
+      </c>
+      <c r="E128">
+        <v>82</v>
+      </c>
+      <c r="F128">
+        <v>88</v>
+      </c>
+      <c r="G128">
+        <v>84</v>
+      </c>
+      <c r="H128">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B129" t="s">
+        <v>221</v>
+      </c>
+      <c r="C129" t="s">
+        <v>217</v>
+      </c>
+      <c r="D129">
+        <v>80</v>
+      </c>
+      <c r="E129">
+        <v>82</v>
+      </c>
+      <c r="F129">
+        <v>88</v>
+      </c>
+      <c r="G129">
+        <v>84</v>
+      </c>
+      <c r="H129">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B130" t="s">
+        <v>223</v>
+      </c>
+      <c r="C130" t="s">
+        <v>217</v>
+      </c>
+      <c r="D130">
+        <v>80</v>
+      </c>
+      <c r="E130">
+        <v>82</v>
+      </c>
+      <c r="F130">
+        <v>88</v>
+      </c>
+      <c r="G130">
+        <v>84</v>
+      </c>
+      <c r="H130">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B131" t="s">
+        <v>225</v>
+      </c>
+      <c r="C131" t="s">
+        <v>217</v>
+      </c>
+      <c r="D131">
+        <v>80</v>
+      </c>
+      <c r="E131">
+        <v>82</v>
+      </c>
+      <c r="F131">
+        <v>88</v>
+      </c>
+      <c r="G131">
+        <v>84</v>
+      </c>
+      <c r="H131">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B132" t="s">
+        <v>227</v>
+      </c>
+      <c r="C132" t="s">
+        <v>217</v>
+      </c>
+      <c r="D132">
+        <v>80</v>
+      </c>
+      <c r="E132">
+        <v>82</v>
+      </c>
+      <c r="F132">
+        <v>88</v>
+      </c>
+      <c r="G132">
+        <v>84</v>
+      </c>
+      <c r="H132">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B133" t="s">
+        <v>229</v>
+      </c>
+      <c r="C133" t="s">
+        <v>217</v>
+      </c>
+      <c r="D133">
+        <v>80</v>
+      </c>
+      <c r="E133">
+        <v>82</v>
+      </c>
+      <c r="F133">
+        <v>88</v>
+      </c>
+      <c r="G133">
+        <v>84</v>
+      </c>
+      <c r="H133">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B134" t="s">
+        <v>231</v>
+      </c>
+      <c r="C134" t="s">
+        <v>217</v>
+      </c>
+      <c r="D134">
+        <v>80</v>
+      </c>
+      <c r="E134">
+        <v>82</v>
+      </c>
+      <c r="F134">
+        <v>88</v>
+      </c>
+      <c r="G134">
+        <v>84</v>
+      </c>
+      <c r="H134">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B135" t="s">
+        <v>233</v>
+      </c>
+      <c r="C135" t="s">
+        <v>217</v>
+      </c>
+      <c r="D135">
+        <v>80</v>
+      </c>
+      <c r="E135">
+        <v>82</v>
+      </c>
+      <c r="F135">
+        <v>88</v>
+      </c>
+      <c r="G135">
+        <v>84</v>
+      </c>
+      <c r="H135">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B136" t="s">
+        <v>235</v>
+      </c>
+      <c r="C136" t="s">
+        <v>217</v>
+      </c>
+      <c r="D136">
+        <v>80</v>
+      </c>
+      <c r="E136">
+        <v>82</v>
+      </c>
+      <c r="F136">
+        <v>88</v>
+      </c>
+      <c r="G136">
+        <v>84</v>
+      </c>
+      <c r="H136">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B137" t="s">
+        <v>237</v>
+      </c>
+      <c r="C137" t="s">
+        <v>217</v>
+      </c>
+      <c r="D137">
+        <v>80</v>
+      </c>
+      <c r="E137">
+        <v>82</v>
+      </c>
+      <c r="F137">
+        <v>88</v>
+      </c>
+      <c r="G137">
+        <v>84</v>
+      </c>
+      <c r="H137">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B138" t="s">
+        <v>239</v>
+      </c>
+      <c r="C138" t="s">
+        <v>217</v>
+      </c>
+      <c r="D138">
+        <v>80</v>
+      </c>
+      <c r="E138">
+        <v>82</v>
+      </c>
+      <c r="F138">
+        <v>88</v>
+      </c>
+      <c r="G138">
+        <v>84</v>
+      </c>
+      <c r="H138">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B139" t="s">
+        <v>241</v>
+      </c>
+      <c r="C139" t="s">
+        <v>217</v>
+      </c>
+      <c r="D139">
+        <v>80</v>
+      </c>
+      <c r="E139">
+        <v>82</v>
+      </c>
+      <c r="F139">
+        <v>88</v>
+      </c>
+      <c r="G139">
+        <v>84</v>
+      </c>
+      <c r="H139">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B140" t="s">
+        <v>243</v>
+      </c>
+      <c r="C140" t="s">
+        <v>217</v>
+      </c>
+      <c r="D140">
+        <v>80</v>
+      </c>
+      <c r="E140">
+        <v>82</v>
+      </c>
+      <c r="F140">
+        <v>88</v>
+      </c>
+      <c r="G140">
+        <v>84</v>
+      </c>
+      <c r="H140">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B141" t="s">
+        <v>245</v>
+      </c>
+      <c r="C141" t="s">
+        <v>217</v>
+      </c>
+      <c r="D141">
+        <v>80</v>
+      </c>
+      <c r="E141">
+        <v>82</v>
+      </c>
+      <c r="F141">
+        <v>88</v>
+      </c>
+      <c r="G141">
+        <v>84</v>
+      </c>
+      <c r="H141">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B142" t="s">
+        <v>247</v>
+      </c>
+      <c r="C142" t="s">
+        <v>217</v>
+      </c>
+      <c r="D142">
+        <v>80</v>
+      </c>
+      <c r="E142">
+        <v>82</v>
+      </c>
+      <c r="F142">
+        <v>88</v>
+      </c>
+      <c r="G142">
+        <v>84</v>
+      </c>
+      <c r="H142">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B143" t="s">
+        <v>249</v>
+      </c>
+      <c r="C143" t="s">
+        <v>217</v>
+      </c>
+      <c r="D143">
+        <v>80</v>
+      </c>
+      <c r="E143">
+        <v>82</v>
+      </c>
+      <c r="F143">
+        <v>88</v>
+      </c>
+      <c r="G143">
+        <v>84</v>
+      </c>
+      <c r="H143">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B144" t="s">
+        <v>251</v>
+      </c>
+      <c r="C144" t="s">
+        <v>217</v>
+      </c>
+      <c r="D144">
+        <v>80</v>
+      </c>
+      <c r="E144">
+        <v>82</v>
+      </c>
+      <c r="F144">
+        <v>88</v>
+      </c>
+      <c r="G144">
+        <v>84</v>
+      </c>
+      <c r="H144">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B145" t="s">
+        <v>253</v>
+      </c>
+      <c r="C145" t="s">
+        <v>217</v>
+      </c>
+      <c r="D145">
+        <v>80</v>
+      </c>
+      <c r="E145">
+        <v>82</v>
+      </c>
+      <c r="F145">
+        <v>88</v>
+      </c>
+      <c r="G145">
+        <v>84</v>
+      </c>
+      <c r="H145">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B146" t="s">
+        <v>255</v>
+      </c>
+      <c r="C146" t="s">
+        <v>217</v>
+      </c>
+      <c r="D146">
+        <v>80</v>
+      </c>
+      <c r="E146">
+        <v>82</v>
+      </c>
+      <c r="F146">
+        <v>88</v>
+      </c>
+      <c r="G146">
+        <v>84</v>
+      </c>
+      <c r="H146">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B147" t="s">
+        <v>257</v>
+      </c>
+      <c r="C147" t="s">
+        <v>217</v>
+      </c>
+      <c r="D147">
+        <v>80</v>
+      </c>
+      <c r="E147">
+        <v>82</v>
+      </c>
+      <c r="F147">
+        <v>88</v>
+      </c>
+      <c r="G147">
+        <v>84</v>
+      </c>
+      <c r="H147">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B148" t="s">
+        <v>259</v>
+      </c>
+      <c r="C148" t="s">
+        <v>217</v>
+      </c>
+      <c r="D148">
+        <v>80</v>
+      </c>
+      <c r="E148">
+        <v>82</v>
+      </c>
+      <c r="F148">
+        <v>88</v>
+      </c>
+      <c r="G148">
+        <v>84</v>
+      </c>
+      <c r="H148">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
